--- a/Dataset_Protein.xlsx
+++ b/Dataset_Protein.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF403E8-FFD8-4580-A27A-E3B26A1F5BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01086854-D8C3-45E2-88AE-9D86607F3AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Nama_pangan</t>
@@ -45,15 +45,24 @@
     <t>Harga</t>
   </si>
   <si>
+    <t>Kategori</t>
+  </si>
+  <si>
     <t>Daging Ayam</t>
   </si>
   <si>
+    <t>Hewani</t>
+  </si>
+  <si>
     <t>Daging Sapi</t>
   </si>
   <si>
     <t>Tempe</t>
   </si>
   <si>
+    <t>Nabati</t>
+  </si>
+  <si>
     <t>Telur Ayam</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t>Udang</t>
   </si>
   <si>
+    <t>Hewan Air</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -153,10 +165,10 @@
     <t>Ikan Patin</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Sarden Kaleng ABC</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Sarden Kaleng</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -206,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +237,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,9 +564,10 @@
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -560,13 +580,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>29.55</v>
@@ -574,13 +597,16 @@
       <c r="D2" s="7">
         <v>3679.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7">
         <v>26.33</v>
@@ -588,13 +614,16 @@
       <c r="D3" s="7">
         <v>13461</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>18.54</v>
@@ -602,13 +631,16 @@
       <c r="D4" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>12.58</v>
@@ -616,13 +648,16 @@
       <c r="D5" s="7">
         <v>2847.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>7.97</v>
@@ -630,13 +665,16 @@
       <c r="D6" s="7">
         <v>1659</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
         <v>3.09</v>
@@ -644,13 +682,16 @@
       <c r="D7" s="7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7">
         <v>3.34</v>
@@ -658,13 +699,16 @@
       <c r="D8" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>18.28</v>
@@ -672,13 +716,16 @@
       <c r="D9" s="7">
         <v>5990</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>13.05</v>
@@ -686,13 +733,16 @@
       <c r="D10" s="7">
         <v>3500</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>20.6</v>
@@ -700,13 +750,16 @@
       <c r="D11" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>27.59</v>
@@ -714,13 +767,16 @@
       <c r="D12" s="7">
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
         <v>3.12</v>
@@ -728,13 +784,16 @@
       <c r="D13" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>35.22</v>
@@ -742,13 +801,16 @@
       <c r="D14" s="7">
         <v>1433</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>12.68</v>
@@ -756,13 +818,16 @@
       <c r="D15" s="7">
         <v>7142.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7">
         <v>15.58</v>
@@ -770,13 +835,16 @@
       <c r="D16" s="7">
         <v>8657</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>23.71</v>
@@ -784,13 +852,16 @@
       <c r="D17" s="7">
         <v>1700</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7">
         <v>20.03</v>
@@ -798,13 +869,16 @@
       <c r="D18" s="7">
         <v>17500</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>17.57</v>
@@ -812,13 +886,16 @@
       <c r="D19" s="7">
         <v>2600</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>23.87</v>
@@ -826,13 +903,16 @@
       <c r="D20" s="7">
         <v>3765.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7">
         <v>16.010000000000002</v>
@@ -840,13 +920,16 @@
       <c r="D21" s="7">
         <v>3500</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7">
         <v>14.91</v>
@@ -854,13 +937,16 @@
       <c r="D22" s="7">
         <v>3550</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
         <v>12.86</v>
@@ -868,16 +954,19 @@
       <c r="D23" s="7">
         <v>5035</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
